--- a/medicine/Autisme/Lydia_X._Z._Brown/Lydia_X._Z._Brown.xlsx
+++ b/medicine/Autisme/Lydia_X._Z._Brown/Lydia_X._Z._Brown.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lydia X. Z. Brown (1993-) est une personnalité américaine d'origine asiatique, activiste qui milite pour les droits des personnes autistes, écrit et fait des conférences.
 </t>
@@ -511,11 +523,48 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lydia X. Z. Brown a notamment travaillé sur les implications racistes du sous-diagnostic des troubles des apprentissages et des troubles du neuro-développement chez les personnes non-blanches ; cela favorise une oppression systémique sur la base du comportement de ces personnes, notamment par la police[1].
-Vie privée
-Brown est non binaire[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lydia X. Z. Brown a notamment travaillé sur les implications racistes du sous-diagnostic des troubles des apprentissages et des troubles du neuro-développement chez les personnes non-blanches ; cela favorise une oppression systémique sur la base du comportement de ces personnes, notamment par la police.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lydia_X._Z._Brown</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lydia_X._Z._Brown</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brown est non binaire.
 </t>
         </is>
       </c>
